--- a/rugby.xlsx
+++ b/rugby.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="users" sheetId="4" r:id="rId4"/>
     <sheet name="Week" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">predicts!$A$1:$MI$346</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="185">
   <si>
     <t>pethl</t>
   </si>
@@ -480,13 +481,115 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paul burnham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ed burnham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cathy owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nick seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> matt cant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duncan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 - 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dommy wuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timmy dawes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> laurent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mick d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kemps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> john</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 - 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> matthew rees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 - 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 - 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kath morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 - 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> andrew cawdery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 - 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> andyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 - 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 - 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pethl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 - 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rob c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +619,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,12 +689,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -11079,7 +11198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -17610,4 +17729,316 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3">
+        <v>41904</v>
+      </c>
+      <c r="C1" s="7">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4">
+        <v>41995</v>
+      </c>
+      <c r="C2" s="8">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4">
+        <v>41812</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41905</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>41937</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>41998</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="8">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="B11" s="4">
+        <v>41910</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="B12" s="4">
+        <v>42002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="B13" s="4">
+        <v>42002</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
+      <c r="B14" s="4">
+        <v>41820</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="8">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
+      <c r="B16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="8">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17">
+      <c r="B17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17">
+      <c r="B18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17">
+      <c r="B19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="8">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17">
+      <c r="B20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="8">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="17">
+      <c r="B21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17">
+      <c r="B22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17">
+      <c r="B23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17">
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>